--- a/test/sentence100_test.xlsx
+++ b/test/sentence100_test.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thaihmong_translation\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866CCA18-3717-4163-A414-427832BCBD3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD709B9-E100-436B-B28F-A38BAB2ECA95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,9 +195,6 @@
     <t>ฉันขับรถคันสีฟ้าไปทางาน</t>
   </si>
   <si>
-    <t>ฉันปรารถนาให้ตนเองมีเงินสาหรับซื้อรถใหม่สักคัน</t>
-  </si>
-  <si>
     <t>ดีที่ได้พบคุณอีกหลังจากไม่ได้เจอกันนานมาแล้ว</t>
   </si>
   <si>
@@ -208,9 +213,6 @@
     <t>เขาอยู่ข้างหลังเธอแน่ะ</t>
   </si>
   <si>
-    <t>นี่เธอทาอะไรลับหลังฉันอีกแล้วหรือ</t>
-  </si>
-  <si>
     <t>หลังเลิกเรียนเราควรจะตรงกลับบ้านเลย</t>
   </si>
   <si>
@@ -271,9 +273,6 @@
     <t>เธอต้องการให้คุณมาโดยเร็วและอย่าทำให้เธอผิดหวัง</t>
   </si>
   <si>
-    <t>ฉันกาลังจะคว้าโอกาสโดยปราศจากความกลัว</t>
-  </si>
-  <si>
     <t>โปรดออกไปจากตึกนี้โดยทันที</t>
   </si>
   <si>
@@ -329,13 +328,22 @@
   </si>
   <si>
     <t>ก็คิดถึงบ้างบางครั้ง โดยเฉพาะในวันแรกๆ</t>
+  </si>
+  <si>
+    <t>ฉันปรารถนาให้ตนเองมีเงินสำหรับซื้อรถใหม่สักคัน</t>
+  </si>
+  <si>
+    <t>นี่เธอทำอะไรลับหลังฉันอีกแล้วหรือ</t>
+  </si>
+  <si>
+    <t>ฉันกำลังจะคว้าโอกาสโดยปราศจากความกลัว</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,12 +357,17 @@
       <name val="TH Niramit AS"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="TH Niramit AS"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FF050505"/>
       <name val="TH Niramit AS"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="20"/>
       <color rgb="FF5D5D5D"/>
       <name val="TH Niramit AS"/>
     </font>
@@ -425,24 +438,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -747,13 +761,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="53.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" customWidth="1"/>
     <col min="5" max="5" width="49" customWidth="1"/>
@@ -761,832 +775,832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A3" s="5">
+    <row r="3" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A4" s="5">
+    <row r="4" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A5" s="5">
+    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A15" s="5">
+    <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A16" s="5">
+    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="5">
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="5">
+    <row r="18" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="5">
+    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="5">
+    <row r="20" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="5">
+    <row r="21" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A22" s="5">
+    <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A23" s="5">
+    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A24" s="5">
+    <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="5">
+    <row r="25" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="5">
+    <row r="26" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="5">
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="5">
+    <row r="29" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="5">
+    <row r="30" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="5">
+    <row r="31" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="5">
+    <row r="32" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="5">
+    <row r="33" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="5">
+    <row r="34" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A34" s="3">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="5">
+    <row r="35" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="5">
+    <row r="36" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A36" s="3">
         <v>8</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="5">
+    <row r="37" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A37" s="3">
         <v>9</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="5">
+    <row r="38" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A38" s="3">
         <v>10</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="5">
+    <row r="39" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A39" s="3">
         <v>11</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" s="5">
+    <row r="40" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A40" s="3">
         <v>12</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A41" s="5">
+    <row r="41" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A42" s="5">
+    <row r="42" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A43" s="5">
+    <row r="43" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A43" s="3">
         <v>15</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A44" s="5">
+    <row r="44" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A44" s="3">
         <v>16</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="5">
+    <row r="45" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A45" s="3">
         <v>17</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A46" s="5">
+    <row r="46" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A46" s="3">
         <v>18</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A47" s="5">
+    <row r="47" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A47" s="3">
         <v>19</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A48" s="5">
+    <row r="48" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A48" s="3">
         <v>20</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="5">
+    <row r="49" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A49" s="3">
         <v>21</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A50" s="5">
+    <row r="50" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A50" s="3">
         <v>22</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A51" s="5">
+    <row r="51" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A51" s="3">
         <v>23</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="5">
+    <row r="52" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A52" s="3">
         <v>24</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A53" s="5">
+    <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A53" s="3">
         <v>25</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="5">
+    <row r="55" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A55" s="3">
         <v>1</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="5">
+    <row r="56" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A56" s="3">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="5">
+    <row r="57" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A57" s="3">
         <v>3</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A58" s="3">
+        <v>4</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="5">
+    <row r="59" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A59" s="3">
+        <v>5</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A62" s="3">
+        <v>8</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A63" s="3">
+        <v>9</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A64" s="3">
+        <v>10</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A65" s="3">
+        <v>11</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A66" s="3">
+        <v>12</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A67" s="3">
+        <v>13</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A68" s="3">
+        <v>14</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A69" s="3">
+        <v>15</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A70" s="3">
+        <v>16</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A71" s="3">
+        <v>17</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A72" s="3">
+        <v>18</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A73" s="3">
+        <v>19</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A74" s="3">
+        <v>20</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A75" s="3">
+        <v>21</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A76" s="3">
+        <v>22</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A77" s="3">
+        <v>23</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A78" s="3">
+        <v>24</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A79" s="3">
+        <v>25</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A81" s="3">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A82" s="3">
+        <v>2</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A83" s="3">
+        <v>3</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A84" s="3">
         <v>4</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="5">
+      <c r="B84" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A85" s="3">
         <v>5</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="5">
+      <c r="B85" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A86" s="3">
         <v>6</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A61" s="5">
+      <c r="B86" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A87" s="3">
         <v>7</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A62" s="5">
+      <c r="B87" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A88" s="3">
         <v>8</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A63" s="5">
+      <c r="B88" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A89" s="3">
         <v>9</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A64" s="5">
+      <c r="B89" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A90" s="3">
         <v>10</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="5">
+      <c r="B90" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A91" s="3">
         <v>11</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A66" s="5">
+      <c r="B91" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A92" s="3">
         <v>12</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="5">
+      <c r="B92" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A93" s="3">
         <v>13</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="5">
+      <c r="B93" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A94" s="3">
         <v>14</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="5">
+      <c r="B94" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A95" s="3">
         <v>15</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A70" s="5">
+      <c r="B95" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A96" s="3">
         <v>16</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A71" s="5">
+      <c r="B96" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A97" s="3">
         <v>17</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="5">
+      <c r="B97" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A98" s="3">
         <v>18</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A73" s="5">
+      <c r="B98" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A99" s="3">
         <v>19</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A74" s="5">
+      <c r="B99" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A100" s="3">
         <v>20</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A75" s="5">
+      <c r="B100" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A101" s="3">
         <v>21</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A76" s="5">
+      <c r="B101" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A102" s="3">
         <v>22</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A77" s="5">
+      <c r="B102" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A103" s="3">
         <v>23</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A78" s="5">
+      <c r="B103" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A104" s="3">
         <v>24</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A79" s="5">
+      <c r="B104" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="A105" s="3">
         <v>25</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A81" s="5">
-        <v>1</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="5">
-        <v>2</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="5">
-        <v>3</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="5">
-        <v>4</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A85" s="5">
-        <v>5</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A86" s="5">
-        <v>6</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A87" s="5">
-        <v>7</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A88" s="5">
-        <v>8</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A89" s="5">
-        <v>9</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A90" s="5">
-        <v>10</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A91" s="5">
-        <v>11</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A92" s="5">
-        <v>12</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A93" s="5">
-        <v>13</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A94" s="5">
-        <v>14</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A95" s="5">
-        <v>15</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A96" s="5">
-        <v>16</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A97" s="5">
-        <v>17</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A98" s="5">
-        <v>18</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A99" s="5">
-        <v>19</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A100" s="5">
-        <v>20</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A101" s="5">
-        <v>21</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A102" s="5">
-        <v>22</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="B105" s="6" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A103" s="5">
-        <v>23</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A104" s="5">
-        <v>24</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A105" s="5">
-        <v>25</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/test/sentence100_test.xlsx
+++ b/test/sentence100_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thaihmong_translation\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD709B9-E100-436B-B28F-A38BAB2ECA95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737BD71E-CB6C-4013-962E-2CF2F4330BAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ประโยคทดสอบ</t>
   </si>
@@ -54,9 +54,6 @@
     <t>คำสั่งของฉันคือปล่อยคุณไว้ที่นี่</t>
   </si>
   <si>
-    <t>คุณจะมาที่ที่ทำงานของฉันพรุ่งนี้เช้าได้ไหม</t>
-  </si>
-  <si>
     <t>คุณทราบหรือไม่ว่าการประชุมของคุณเกี่ยวกับเรื่องอะไร</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>ฉันได้รับข้อความของคุณ มีอะไรเหรอ</t>
   </si>
   <si>
-    <t>ฉันต้องการความช่วยเหลือของคุณเดี๋ยวนี้</t>
-  </si>
-  <si>
     <t>ฉันต้องการให้คุณได้พบกับเพื่อนๆ ของฉัน</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>ฉันอยากได้ยินความเห็นของคุณ</t>
   </si>
   <si>
-    <t>ทำตามคำชี้แนะของฉันเป็นอย่างดี</t>
-  </si>
-  <si>
     <t>เธอแก่มากพอที่จะเป็นยายของคุณได้</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>ใครคือผู้เขียน</t>
   </si>
   <si>
-    <t>มีแอปเปิ้ลบ้างหรือไม่</t>
-  </si>
-  <si>
     <t>สิ่งนี้ เป็นของใคร</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>ฉันหารถดีๆ คันหนึ่งให้คุณได้แล้ว</t>
   </si>
   <si>
-    <t>ฉันขับรถคันสีฟ้าไปทางาน</t>
-  </si>
-  <si>
     <t>ดีที่ได้พบคุณอีกหลังจากไม่ได้เจอกันนานมาแล้ว</t>
   </si>
   <si>
@@ -222,9 +207,6 @@
     <t>เธอควรจะละอายใจตัวเองนะ</t>
   </si>
   <si>
-    <t>ฉันพาตัวเข้าสู่ปัญหาโดยการ...</t>
-  </si>
-  <si>
     <t>มันเป็นเรื่องส่วนตัว</t>
   </si>
   <si>
@@ -267,9 +249,6 @@
     <t>ฉันไปที่นั่นโดยเครื่องบิน</t>
   </si>
   <si>
-    <t>ฉันพาตัวเข้าสู่ปัญหาโดยการ.</t>
-  </si>
-  <si>
     <t>เธอต้องการให้คุณมาโดยเร็วและอย่าทำให้เธอผิดหวัง</t>
   </si>
   <si>
@@ -285,9 +264,6 @@
     <t>ฉันคิดว่ามันสมบูรณ์แบบโดยแท้จริง</t>
   </si>
   <si>
-    <t>มันควรจะทาโดยนักออกแบบมืออาชีพนะนี่</t>
-  </si>
-  <si>
     <t>มันเหลือเชื่อโดยแท้</t>
   </si>
   <si>
@@ -321,12 +297,6 @@
     <t>ฉันจะไม่ไปจากที่นี่โดยไม่ได้งาน</t>
   </si>
   <si>
-    <t>มีงานสองสามอย่างโดยรอบบ้านที่ฉันอยากให้คุณทา</t>
-  </si>
-  <si>
-    <t>พวกเราควรจะทาสิ่งนั้นโดยทันที</t>
-  </si>
-  <si>
     <t>ก็คิดถึงบ้างบางครั้ง โดยเฉพาะในวันแรกๆ</t>
   </si>
   <si>
@@ -337,13 +307,49 @@
   </si>
   <si>
     <t>ฉันกำลังจะคว้าโอกาสโดยปราศจากความกลัว</t>
+  </si>
+  <si>
+    <t>เขาประทับใจกับงานของคุณมาก</t>
+  </si>
+  <si>
+    <t>คุณจะมาที่ทำงานของฉันวันพรุ่งนี้เช้าได้ไหม</t>
+  </si>
+  <si>
+    <t>ฉันต้องการความช่วยเหลือจากคุณเดี๋ยวนี้</t>
+  </si>
+  <si>
+    <t>ทำตามคำชี้แนะของฉันได้เป็นอย่างดี</t>
+  </si>
+  <si>
+    <t>มีแอปเปิ้ลบ้างไหม</t>
+  </si>
+  <si>
+    <t>ฉันขับรถคันสีฟ้าไปทำงาน</t>
+  </si>
+  <si>
+    <t>ตัวปัญหาคืออะไร</t>
+  </si>
+  <si>
+    <t>ฉันแก้ปัญหาโดยการวิ่ง</t>
+  </si>
+  <si>
+    <t>มันถูกออกแบบโดยนักออกแบบมืออาชีพ</t>
+  </si>
+  <si>
+    <t>ฉันต้องการพูดกับเขาโดยผ่านคุณ</t>
+  </si>
+  <si>
+    <t>คุณต้องทำโดยไม่มีผู้ช่วย</t>
+  </si>
+  <si>
+    <t>พวกเราควรจะทำสิ่งนั้นโดยทันที</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,17 +364,6 @@
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="TH Niramit AS"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF050505"/>
-      <name val="TH Niramit AS"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF5D5D5D"/>
       <name val="TH Niramit AS"/>
     </font>
   </fonts>
@@ -438,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,15 +443,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -761,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.75"/>
@@ -780,12 +777,12 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -793,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -801,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -809,15 +806,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -825,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -833,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -841,766 +838,766 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B30" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B31" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>6</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>10</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B38" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>11</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B39" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>12</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B40" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B41" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>15</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>16</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>17</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>18</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B46" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>19</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B47" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>20</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B48" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>21</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>22</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>23</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B51" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>24</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="B52" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>25</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>51</v>
+      <c r="B53" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B54" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>7</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B61" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>9</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B63" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B64" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>11</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>12</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>13</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>14</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>15</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>16</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>17</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>18</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>19</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>20</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>21</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>22</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>23</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>24</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>25</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B80" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>1</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B81" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>2</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B82" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>3</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B83" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>4</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+      <c r="B84" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>5</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>9</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>11</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>12</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>13</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>14</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>15</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>16</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>17</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>18</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>19</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>20</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>21</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>22</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>23</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>24</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30.6" x14ac:dyDescent="0.9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>25</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/test/sentence100_test.xlsx
+++ b/test/sentence100_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thaihmong_translation\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737BD71E-CB6C-4013-962E-2CF2F4330BAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA9739-315E-48F1-9AE7-2DA1E7C75A62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>ฉันอยากได้ยินความเห็นของคุณ</t>
   </si>
   <si>
-    <t>เธอแก่มากพอที่จะเป็นยายของคุณได้</t>
-  </si>
-  <si>
     <t>เธอต้องการอาศัยอยู่ใกล้พี่ชายของเธอ</t>
   </si>
   <si>
@@ -123,18 +120,12 @@
     <t>คุณแต่งงานหรือยัง</t>
   </si>
   <si>
-    <t>สถานภาพการสมรสของคุณเป็นอย่างไร</t>
-  </si>
-  <si>
     <t>คุณทำอาชีพอะไร</t>
   </si>
   <si>
     <t>คุณไปที่ไหนมา</t>
   </si>
   <si>
-    <t>คุณมีรถ หรือไม่</t>
-  </si>
-  <si>
     <t>คุณเล่นเทนนิส ฟุตบอลเป็นหรือไม่</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>คุณสบายดีไหม</t>
   </si>
   <si>
-    <t>จะให้ฉันช่วยอะไรบ้างหรือไม่</t>
-  </si>
-  <si>
     <t>ขอฉันลองได้ไหม</t>
   </si>
   <si>
@@ -162,15 +150,9 @@
     <t>ฉันขอเปิดหน้าต่างได้หรือไม่</t>
   </si>
   <si>
-    <t>มีธนาคารอยู่ใกล้ๆ แถวนี้บ้างหรือไม่</t>
-  </si>
-  <si>
     <t>ใครคือผู้เขียน</t>
   </si>
   <si>
-    <t>สิ่งนี้ เป็นของใคร</t>
-  </si>
-  <si>
     <t>คุณชอบอะไร</t>
   </si>
   <si>
@@ -339,10 +321,28 @@
     <t>ฉันต้องการพูดกับเขาโดยผ่านคุณ</t>
   </si>
   <si>
-    <t>คุณต้องทำโดยไม่มีผู้ช่วย</t>
-  </si>
-  <si>
     <t>พวกเราควรจะทำสิ่งนั้นโดยทันที</t>
+  </si>
+  <si>
+    <t>เขาแก่มาก พอที่จะเป็นยายของคุณได้</t>
+  </si>
+  <si>
+    <t>การสมรสของคุณเป็นอย่างไร</t>
+  </si>
+  <si>
+    <t>คุณมีรถหรือไม่</t>
+  </si>
+  <si>
+    <t>จะให้ฉันช่วยอะไรไหม</t>
+  </si>
+  <si>
+    <t>มีธนาคารอยู่ใกล้ๆแถวนี้บ้างหรือไม่</t>
+  </si>
+  <si>
+    <t>สิ่งนี้เป็นของใคร</t>
+  </si>
+  <si>
+    <t>คุณต้องทำงานโดยไม่มีผู้ช่วย</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
       <name val="TH Niramit AS"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,6 +464,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.75"/>
@@ -811,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -843,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
@@ -883,14 +901,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -923,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -931,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -939,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -947,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -955,15 +973,15 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>20</v>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -971,7 +989,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -979,13 +997,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -993,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1001,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1009,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1017,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1025,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1033,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1041,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1049,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1057,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1065,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1073,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1081,15 +1099,15 @@
         <v>12</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>36</v>
+      <c r="B41" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1097,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1105,7 +1123,7 @@
         <v>15</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1113,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1121,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1129,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1137,15 +1155,15 @@
         <v>19</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>20</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>43</v>
+      <c r="B48" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1153,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1161,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1169,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1177,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1185,13 +1203,13 @@
         <v>25</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1199,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1207,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1215,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1223,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1231,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1239,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1247,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1255,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1263,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1271,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1279,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1287,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1295,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1303,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1311,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1319,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1327,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1335,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1343,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1351,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1359,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1367,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1375,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1383,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1391,13 +1409,13 @@
         <v>25</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1405,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1413,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1421,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1429,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1437,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1445,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1453,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1461,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1469,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1477,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1485,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1493,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1501,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1509,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1517,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1525,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1533,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1541,7 +1559,7 @@
         <v>18</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1549,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1557,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1565,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1573,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1581,7 +1599,7 @@
         <v>23</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1589,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -1597,7 +1615,7 @@
         <v>25</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
